--- a/Luban/Config/Data/__beans__.xlsx
+++ b/Luban/Config/Data/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,27 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>Graph.Edge</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>LinkType</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>The type of link</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>The target of the edge</t>
   </si>
 </sst>
 </file>
@@ -75,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -538,28 +559,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,7 +1042,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1107,17 +1128,33 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="3"/>
